--- a/premium/src/main/resources/specific_disease_conf.xlsx
+++ b/premium/src/main/resources/specific_disease_conf.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anil.juneja/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anil.juneja/Downloads/superstar/superstar/premium/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB79AD0-2BB4-1F42-A497-A5C6B3AA0F4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1ADBF1-C866-CD48-85F1-6B73F615AE7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{34EEAC05-8DE0-8946-8BE5-FCF31A17F5C8}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17260" xr2:uid="{34EEAC05-8DE0-8946-8BE5-FCF31A17F5C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -430,7 +430,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>0.1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>0.30000000000000004</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
